--- a/currentbuild/ValueSet-no-basis-auditevent-purpose-of-event.xlsx
+++ b/currentbuild/ValueSet-no-basis-auditevent-purpose-of-event.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-no-basis-auditevent-purpose-of-event.xlsx
+++ b/currentbuild/ValueSet-no-basis-auditevent-purpose-of-event.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
